--- a/Data/Output/Output Results.xlsx
+++ b/Data/Output/Output Results.xlsx
@@ -37,11 +37,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +390,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,16 +400,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Data/Output/Output Results.xlsx
+++ b/Data/Output/Output Results.xlsx
@@ -1,93 +1,286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\FFR Automation by RoboticEnterpriseFramework\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>TransactionID</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Models</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:51:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR123SLK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:51:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR183SLK1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:51:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR183URA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:51:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WR183GLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:51:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR183ASR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR185URA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR123GRD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR123ASR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR183GRD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR183ASP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR123IVR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:52:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR183ICY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:53:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR183IVR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:53:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR243SLK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:53:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR183AG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:53:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR125ICY1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:53:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IR243URA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:53:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR183SS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PPT Data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:54:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR183GRD2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:54:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR123SS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:55:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR123SG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:55:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:55:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:55:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:56:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:56:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:57:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:57:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:58:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:58:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:59:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 15:59:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:00:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:00:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:01:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:01:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:02:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:02:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/03/2022 16:02:59</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,34 +579,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D64"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="10.425781" style="2" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A28" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A29" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A30" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A31" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A32" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A33" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A34" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A35" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A36" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A37" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A39" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="42" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="43" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="44" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="45" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="46" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="47" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="48" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="49" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="50" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="51" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="52" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="53" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="54" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="55" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="56" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="57" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="58" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="59" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="60" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="61" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="62" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="63" spans="1:4" x14ac:dyDescent="0.25"/>
+    <x:row r="64" spans="1:4" x14ac:dyDescent="0.25"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>